--- a/tut05/output/0501EE15.xlsx
+++ b/tut05/output/0501EE15.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.469387755102041</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>9.409090909090908</v>
+        <v>9.41</v>
       </c>
       <c r="D6" t="n">
-        <v>9.521739130434783</v>
+        <v>9.52</v>
       </c>
       <c r="E6" t="n">
-        <v>9.739130434782609</v>
+        <v>9.74</v>
       </c>
       <c r="F6" t="n">
-        <v>9.384615384615385</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="G6" t="n">
         <v>9.1</v>
       </c>
       <c r="H6" t="n">
-        <v>9.720930232558139</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>9.526315789473685</v>
+        <v>9.529999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.469387755102041</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>9.440860215053764</v>
+        <v>9.44</v>
       </c>
       <c r="D8" t="n">
-        <v>9.467625899280575</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>9.535135135135135</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>9.508928571428571</v>
+        <v>9.51</v>
       </c>
       <c r="G8" t="n">
-        <v>9.446969696969697</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>9.485342019543975</v>
+        <v>9.49</v>
       </c>
       <c r="I8" t="n">
-        <v>9.489855072463769</v>
+        <v>9.49</v>
       </c>
     </row>
   </sheetData>
